--- a/biology/Zoologie/Camponotus_truncatus/Camponotus_truncatus.xlsx
+++ b/biology/Zoologie/Camponotus_truncatus/Camponotus_truncatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colobopsis truncatus est une espèce de fourmis arboricoles de la sous-famille des Formicinae faisant son nid dans les cavités des arbres. La fondation est indépendante (une reine peut fonder seule une nouvelle colonie) et les colonies, monogynes, peuvent comporter une centaine d'ouvrières[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colobopsis truncatus est une espèce de fourmis arboricoles de la sous-famille des Formicinae faisant son nid dans les cavités des arbres. La fondation est indépendante (une reine peut fonder seule une nouvelle colonie) et les colonies, monogynes, peuvent comporter une centaine d'ouvrières.
 Particularité :
 les majors et les reines de cette espèce ont une tête en forme de porte. certains majors restent à proximité des entrées du nid, en cas d'agression leurs tête bloqueront les entrées.
 </t>
